--- a/rotas.csv.xlsx
+++ b/rotas.csv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osadr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osadr\OneDrive - Hunan University of Science and Technology\Ambiente de Trabalho\rotas_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7070AE-ACB2-49CB-B293-943C475BF4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DDFD53-D641-4537-949F-1943E40EF224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>Filtro -&gt;</t>
   </si>
@@ -102,15 +102,9 @@
     <t>B53</t>
   </si>
   <si>
-    <t>4:18</t>
-  </si>
-  <si>
     <t>Benfica</t>
   </si>
   <si>
-    <t>6:30</t>
-  </si>
-  <si>
     <t>○</t>
   </si>
   <si>
@@ -139,13 +133,67 @@
   </si>
   <si>
     <t>joaquim pereira</t>
+  </si>
+  <si>
+    <t>B85</t>
+  </si>
+  <si>
+    <t>Mercado de Santos</t>
+  </si>
+  <si>
+    <t>B64</t>
+  </si>
+  <si>
+    <t>Buraca</t>
+  </si>
+  <si>
+    <t>B81</t>
+  </si>
+  <si>
+    <t>B55</t>
+  </si>
+  <si>
+    <t>B27</t>
+  </si>
+  <si>
+    <t>B71</t>
+  </si>
+  <si>
+    <t>B77</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>Beja</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Benavente</t>
+  </si>
+  <si>
+    <t>Mem-Martins</t>
+  </si>
+  <si>
+    <t>Cavaleira</t>
+  </si>
+  <si>
+    <t>Arroja</t>
+  </si>
+  <si>
+    <t>Brandoa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +204,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -179,10 +234,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,14 +458,25 @@
   <dimension ref="A2:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:S3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="25" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" customWidth="1"/>
+    <col min="18" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
@@ -500,20 +568,20 @@
       <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="M4" s="1">
         <v>10</v>
@@ -539,40 +607,40 @@
     </row>
     <row r="5" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
-        <v>76628</v>
+        <v>76629</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="1">
-        <v>6628</v>
+        <v>6629</v>
       </c>
       <c r="F5" s="1">
         <v>6429</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.1875</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="M5" s="1">
         <v>10</v>
@@ -598,40 +666,40 @@
     </row>
     <row r="6" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
-        <v>76628</v>
+        <v>76630</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1">
-        <v>6628</v>
+        <v>6630</v>
       </c>
       <c r="F6" s="1">
         <v>6429</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.28125</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="M6" s="1">
         <v>10</v>
@@ -657,40 +725,40 @@
     </row>
     <row r="7" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
-        <v>76628</v>
+        <v>76631</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1">
-        <v>6628</v>
+        <v>6631</v>
       </c>
       <c r="F7" s="1">
         <v>6429</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.125</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="M7" s="1">
         <v>10</v>
@@ -716,40 +784,40 @@
     </row>
     <row r="8" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
-        <v>76628</v>
+        <v>76632</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="1">
-        <v>6628</v>
+        <v>6632</v>
       </c>
       <c r="F8" s="1">
         <v>6429</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.14583333333333334</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.24930555555555556</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="M8" s="1">
         <v>10</v>
@@ -790,25 +858,25 @@
         <v>6628</v>
       </c>
       <c r="F9" s="1">
-        <v>6429</v>
+        <v>6451</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.375</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="M9" s="1">
         <v>10</v>
@@ -834,40 +902,40 @@
     </row>
     <row r="10" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
-        <v>76628</v>
+        <v>76629</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="1">
-        <v>6628</v>
+        <v>6629</v>
       </c>
       <c r="F10" s="1">
         <v>6429</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.34375</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="M10" s="1">
         <v>10</v>
@@ -893,40 +961,40 @@
     </row>
     <row r="11" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
-        <v>76628</v>
+        <v>76630</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1">
-        <v>6628</v>
+        <v>6630</v>
       </c>
       <c r="F11" s="1">
         <v>6429</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.3298611111111111</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="M11" s="1">
         <v>10</v>
@@ -952,40 +1020,40 @@
     </row>
     <row r="12" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
-        <v>76628</v>
+        <v>76631</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="1">
-        <v>6628</v>
+        <v>6631</v>
       </c>
       <c r="F12" s="1">
         <v>6429</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.35555555555555557</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="M12" s="1">
         <v>10</v>
@@ -1006,6 +1074,62 @@
         <v>1</v>
       </c>
       <c r="S12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1">
+        <v>76632</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6632</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6429</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="1">
+        <v>10</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>7</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
         <v>1</v>
       </c>
     </row>

--- a/rotas.csv.xlsx
+++ b/rotas.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osadr\OneDrive - Hunan University of Science and Technology\Ambiente de Trabalho\rotas_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DDFD53-D641-4537-949F-1943E40EF224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA892BD-7D77-435E-8F0F-39425ED60C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>Filtro -&gt;</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Brandoa</t>
+  </si>
+  <si>
+    <t>Minha Escala</t>
+  </si>
+  <si>
+    <t>Segunda - feira</t>
   </si>
 </sst>
 </file>
@@ -234,12 +240,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AA1000"/>
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -479,12 +489,24 @@
     <col min="18" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="5"/>
+    </row>
     <row r="2" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="6">
+        <v>45999</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
@@ -2134,6 +2156,9 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/rotas.csv.xlsx
+++ b/rotas.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osadr\OneDrive - Hunan University of Science and Technology\Ambiente de Trabalho\rotas_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA892BD-7D77-435E-8F0F-39425ED60C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1054D689-A51C-4EFF-8698-B9FA9A3B6079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/rotas.csv.xlsx
+++ b/rotas.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osadr\OneDrive - Hunan University of Science and Technology\Ambiente de Trabalho\rotas_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1054D689-A51C-4EFF-8698-B9FA9A3B6079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E677FC5-7AA0-47AF-AF9E-AB5B1D73567D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>Filtro -&gt;</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Segunda - feira</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data     08/12/2025</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -505,8 +508,8 @@
       <c r="H2" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="6">
-        <v>45999</v>
+      <c r="I2" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
